--- a/nbs/files/lut/dbo_filtered.xlsx
+++ b/nbs/files/lut/dbo_filtered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01931B51-8E8D-0E46-8EA9-35B9D7FBE55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1C8CC1-DB86-E948-B289-DB091BBE0A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="3480" windowWidth="26040" windowHeight="14440" xr2:uid="{3E7F4F39-4E79-0742-AE50-103D83AD14DE}"/>
+    <workbookView xWindow="2760" yWindow="3480" windowWidth="26040" windowHeight="14440" xr2:uid="{3E7F4F39-4E79-0742-AE50-103D83AD14DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Yes</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Not available</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8E541A-EC1C-554B-955F-94E542EE9A38}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,25 +426,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
